--- a/ccloud-web-admin/src/main/webapp/WEB-INF/admin/user/userTemplate.xlsx
+++ b/ccloud-web-admin/src/main/webapp/WEB-INF/admin/user/userTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
-    <t>真实姓名</t>
-  </si>
-  <si>
-    <t>呢称（选填）</t>
+    <t>姓名</t>
   </si>
   <si>
     <t>手机</t>
@@ -87,6 +84,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -96,44 +130,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,56 +200,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,13 +230,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,169 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +421,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,6 +472,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -480,23 +501,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,15 +521,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,7 +532,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,7 +541,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,10 +550,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,112 +562,112 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1006,86 +1003,78 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.875" style="1"/>
-    <col min="6" max="6" width="9.625" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.875" style="1"/>
+    <col min="5" max="5" width="9.625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="3">
+        <v>13128904328</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3">
-        <v>13128904328</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5">
+      <c r="E6" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="6:6">
-      <c r="F6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>"经销商老总, 经理, 主管,财务主管,综合库管,库管,业务员,直营总监,直营经理,直营主管,直营财务主管,商超经理,商超主管, 商超财务主管,餐饮主管,餐饮财务主管,账务人员"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1093,7 +1082,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D1 D3:D1048576" listDataValidation="1"/>
+    <ignoredError sqref="C1 C3:C1048576" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/ccloud-web-admin/src/main/webapp/WEB-INF/admin/user/userTemplate.xlsx
+++ b/ccloud-web-admin/src/main/webapp/WEB-INF/admin/user/userTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>姓名</t>
   </si>
   <si>
+    <t>昵称/员工号</t>
+  </si>
+  <si>
     <t>手机</t>
   </si>
   <si>
@@ -30,6 +33,9 @@
   </si>
   <si>
     <t>张飞</t>
+  </si>
+  <si>
+    <t>zf001</t>
   </si>
   <si>
     <t>主管</t>
@@ -55,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -78,12 +84,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -92,53 +144,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,31 +196,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,13 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,16 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,25 +236,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,19 +380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,31 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,97 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +427,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,21 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -472,17 +493,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,21 +527,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -529,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,133 +547,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,78 +1009,88 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="8.875" style="1"/>
-    <col min="5" max="5" width="9.625" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.875" style="1"/>
+    <col min="6" max="6" width="9.625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
         <v>13128904328</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
+      <c r="C3" s="3"/>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
+      <c r="C4" s="3"/>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
+      <c r="C5" s="3"/>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="5:5">
-      <c r="E6" s="1" t="s">
-        <v>10</v>
+    <row r="6" spans="6:6">
+      <c r="F6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"经销商老总, 经理, 主管,财务主管,综合库管,库管,业务员,直营总监,直营经理,直营主管,直营财务主管,商超经理,商超主管, 商超财务主管,餐饮主管,餐饮财务主管,账务人员"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1082,7 +1098,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="C1 C3:C1048576" listDataValidation="1"/>
+    <ignoredError sqref="D3:D1048576 D1" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/ccloud-web-admin/src/main/webapp/WEB-INF/admin/user/userTemplate.xlsx
+++ b/ccloud-web-admin/src/main/webapp/WEB-INF/admin/user/userTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28080" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>昵称/员工号</t>
+    <t>用户名/员工号</t>
   </si>
   <si>
     <t>手机</t>
@@ -61,9 +61,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -113,6 +113,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -121,23 +150,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,37 +166,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,7 +182,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,9 +196,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +214,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,91 +236,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,91 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,21 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -469,41 +469,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,6 +497,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -535,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +547,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,7 +1012,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1098,7 +1098,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="D3:D1048576 D1" listDataValidation="1"/>
+    <ignoredError sqref="D1 D3:D1048576" listDataValidation="1"/>
   </ignoredErrors>
 </worksheet>
 </file>